--- a/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A14F5FAE-56A9-4DB6-9097-9748BF1E3537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A54A64C-C7F9-4518-B7A2-95C6A86B160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A5ED294-A931-45D2-A34E-EB6B5512030A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C72830E2-DD4E-4C62-9A4C-0CB4FA164FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="586">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,7 +107,7 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>88,48%</t>
+    <t>87,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,1645 +122,1630 @@
     <t>98,77%</t>
   </si>
   <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>12,75%</t>
+    <t>12,77%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>93,52%</t>
+    <t>94,01%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -1769,61 +1754,49 @@
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>99,76%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F5AAA1-5DEC-4C4A-8BD8-0D001A3CFEBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82B588-6760-499A-956F-FF770DD938A5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4225,7 +4198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895E014-BE82-4156-AADF-ADFD310457E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9664EAF1-8097-4888-B7A7-D04B7A0F79AB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4546,13 +4519,13 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4561,13 +4534,13 @@
         <v>2390</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,10 +4555,10 @@
         <v>4258</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>174</v>
@@ -4600,10 +4573,10 @@
         <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4612,13 +4585,13 @@
         <v>8546</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4606,13 @@
         <v>73883</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4648,13 +4621,13 @@
         <v>96477</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -4669,7 +4642,7 @@
         <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4710,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4752,13 +4725,13 @@
         <v>5461</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4767,10 +4740,10 @@
         <v>8449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>196</v>
@@ -4860,7 +4833,7 @@
         <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -4869,13 +4842,13 @@
         <v>124072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4979,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +4988,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -5024,13 +4997,13 @@
         <v>3141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,10 +5018,10 @@
         <v>107197</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -5063,7 +5036,7 @@
         <v>61</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -5215,13 +5188,13 @@
         <v>2979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5230,13 +5203,13 @@
         <v>4014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,10 +5224,10 @@
         <v>30577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5266,13 +5239,13 @@
         <v>46876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5281,13 +5254,13 @@
         <v>77453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5328,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5370,13 +5343,13 @@
         <v>2156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -5385,13 +5358,13 @@
         <v>3213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5421,13 +5394,13 @@
         <v>2187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5436,13 +5409,13 @@
         <v>2187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,7 +5433,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -5472,13 +5445,13 @@
         <v>65869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -5487,13 +5460,13 @@
         <v>116568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5534,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5582,7 +5555,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5591,13 +5564,13 @@
         <v>3058</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5585,13 @@
         <v>4231</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5627,13 +5600,13 @@
         <v>3313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5642,13 +5615,13 @@
         <v>7545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5636,13 @@
         <v>106999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H30" s="7">
         <v>124</v>
@@ -5678,13 +5651,13 @@
         <v>136623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -5693,13 +5666,13 @@
         <v>243624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5782,13 +5755,13 @@
         <v>2182</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5797,13 +5770,13 @@
         <v>2182</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5791,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -5833,13 +5806,13 @@
         <v>4661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -5848,13 +5821,13 @@
         <v>6859</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,10 +5842,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -5884,13 +5857,13 @@
         <v>157573</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5899,13 +5872,13 @@
         <v>276128</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5946,13 @@
         <v>6138</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -5991,10 +5964,10 @@
         <v>124</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -6006,10 +5979,10 @@
         <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +5997,13 @@
         <v>13860</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6039,13 +6012,13 @@
         <v>21620</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6054,13 +6027,13 @@
         <v>35480</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6048,13 @@
         <v>539639</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>310</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="H38" s="7">
         <v>663</v>
@@ -6090,13 +6063,13 @@
         <v>708201</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -6105,13 +6078,13 @@
         <v>1247840</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,7 +6164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40716143-7C3B-498C-944F-4825F041DEE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1CE4E-B8D4-4879-8E47-FDCB66CC2B28}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6208,7 +6181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6321,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6330,13 +6303,13 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6345,13 +6318,13 @@
         <v>1038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6339,13 @@
         <v>1603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6387,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6396,13 +6369,13 @@
         <v>1603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,10 +6390,10 @@
         <v>37293</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6432,10 +6405,10 @@
         <v>48353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6447,13 +6420,13 @@
         <v>85646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6536,13 +6509,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6551,13 +6524,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6545,13 @@
         <v>1900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6587,13 +6560,13 @@
         <v>4030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -6602,13 +6575,13 @@
         <v>5930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,10 +6596,10 @@
         <v>85395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6638,13 +6611,13 @@
         <v>109851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -6653,13 +6626,13 @@
         <v>195246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6742,13 +6715,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6757,13 +6730,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6793,13 +6766,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6808,13 +6781,13 @@
         <v>1233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6805,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -6844,13 +6817,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6859,13 +6832,13 @@
         <v>138966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,7 +6912,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6969,7 +6942,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6957,13 @@
         <v>764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7005,7 +6978,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7014,13 +6987,13 @@
         <v>3018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,10 +7008,10 @@
         <v>63948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -7050,10 +7023,10 @@
         <v>89320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -7068,10 +7041,10 @@
         <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7160,7 +7133,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7175,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7163,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7205,13 +7178,13 @@
         <v>2295</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7220,13 +7193,13 @@
         <v>3094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>383</v>
+        <v>153</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,10 +7214,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -7256,10 +7229,10 @@
         <v>48237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -7271,13 +7244,13 @@
         <v>89518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7360,13 +7333,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -7375,13 +7348,13 @@
         <v>2453</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7369,13 @@
         <v>2603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7411,13 +7384,13 @@
         <v>2272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7426,13 +7399,13 @@
         <v>4875</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7420,13 @@
         <v>45843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -7462,13 +7435,13 @@
         <v>62663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -7477,13 +7450,13 @@
         <v>108506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7524,13 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7566,13 +7539,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7581,13 +7554,13 @@
         <v>2183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7575,13 @@
         <v>912</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -7617,13 +7590,13 @@
         <v>6926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>417</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7632,13 +7605,13 @@
         <v>7838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,10 +7626,10 @@
         <v>110361</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>23</v>
@@ -7668,13 +7641,13 @@
         <v>139428</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7683,13 +7656,13 @@
         <v>249789</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7736,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7793,7 +7766,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7823,13 +7796,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -7838,13 +7811,13 @@
         <v>2590</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7835,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>25</v>
@@ -7874,10 +7847,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>23</v>
@@ -7889,10 +7862,10 @@
         <v>307875</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>23</v>
@@ -7963,13 +7936,13 @@
         <v>912</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7978,13 +7951,13 @@
         <v>9353</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>144</v>
+        <v>439</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>53</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -7993,13 +7966,13 @@
         <v>10265</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>432</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,10 +7990,10 @@
         <v>126</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>280</v>
+        <v>441</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>433</v>
+        <v>16</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -8029,13 +8002,13 @@
         <v>21600</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>436</v>
+        <v>326</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -8044,13 +8017,13 @@
         <v>30181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8038,13 @@
         <v>581835</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>188</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="H38" s="7">
         <v>631</v>
@@ -8080,13 +8053,13 @@
         <v>746978</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M38" s="7">
         <v>1247</v>
@@ -8095,13 +8068,13 @@
         <v>1328813</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1968E5D-EC38-44F0-AF6A-79E91A0F2741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510EA7F7-E575-4B5C-A38D-6DA149CCACC2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8198,7 +8171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8326,7 +8299,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8371,13 +8344,13 @@
         <v>2251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8386,13 +8359,13 @@
         <v>2251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8410,7 +8383,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -8422,13 +8395,13 @@
         <v>59968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
@@ -8440,10 +8413,10 @@
         <v>155</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8490,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8526,13 +8499,13 @@
         <v>872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8547,7 +8520,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8535,13 @@
         <v>2076</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -8577,13 +8550,13 @@
         <v>6041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>72</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -8592,13 +8565,13 @@
         <v>8117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>467</v>
+        <v>218</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>228</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,10 +8586,10 @@
         <v>84238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -8628,13 +8601,13 @@
         <v>134444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>306</v>
@@ -8643,13 +8616,13 @@
         <v>218682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8690,13 @@
         <v>1350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>482</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8738,7 +8711,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8750,10 +8723,10 @@
         <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8768,13 +8741,13 @@
         <v>4346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -8783,13 +8756,13 @@
         <v>3664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -8798,13 +8771,13 @@
         <v>8010</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8792,13 @@
         <v>71905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -8834,13 +8807,13 @@
         <v>90122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -8849,13 +8822,13 @@
         <v>162028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8911,13 @@
         <v>1765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>495</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -8953,13 +8926,13 @@
         <v>1765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +8947,13 @@
         <v>728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -8989,13 +8962,13 @@
         <v>810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -9004,13 +8977,13 @@
         <v>1538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,10 +8998,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>503</v>
+        <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -9040,13 +9013,13 @@
         <v>107880</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
@@ -9055,13 +9028,13 @@
         <v>185957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>513</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,7 +9108,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9144,13 +9117,13 @@
         <v>484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9159,13 +9132,13 @@
         <v>484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,13 +9153,13 @@
         <v>1829</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -9195,13 +9168,13 @@
         <v>4643</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -9210,13 +9183,13 @@
         <v>6472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,13 +9204,13 @@
         <v>36502</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -9246,13 +9219,13 @@
         <v>60352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>520</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -9261,13 +9234,13 @@
         <v>96855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9335,13 +9308,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -9350,13 +9323,13 @@
         <v>2759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -9368,10 +9341,10 @@
         <v>226</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>538</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,13 +9359,13 @@
         <v>867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -9401,13 +9374,13 @@
         <v>3603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -9416,13 +9389,13 @@
         <v>4470</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>543</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9410,13 @@
         <v>60725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>541</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>542</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
@@ -9452,13 +9425,13 @@
         <v>63491</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M26" s="7">
         <v>289</v>
@@ -9467,13 +9440,13 @@
         <v>124217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9547,7 +9520,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>549</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -9556,13 +9529,13 @@
         <v>1228</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>242</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -9571,13 +9544,13 @@
         <v>1228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>552</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9598,7 +9571,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>549</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9607,13 +9580,13 @@
         <v>2104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -9622,13 +9595,13 @@
         <v>2104</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>555</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>556</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,7 +9619,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>25</v>
@@ -9661,10 +9634,10 @@
         <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>404</v>
@@ -9673,13 +9646,13 @@
         <v>386351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>369</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9753,7 +9726,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9768,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9783,7 +9756,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9798,13 +9771,13 @@
         <v>159</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>565</v>
+        <v>374</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -9813,13 +9786,13 @@
         <v>4227</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>284</v>
+        <v>563</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -9828,13 +9801,13 @@
         <v>4386</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9849,10 +9822,10 @@
         <v>169768</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>571</v>
+        <v>379</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -9864,13 +9837,13 @@
         <v>218816</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M34" s="7">
         <v>574</v>
@@ -9879,13 +9852,13 @@
         <v>388584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>576</v>
+        <v>294</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9953,13 +9926,13 @@
         <v>2941</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -9968,13 +9941,13 @@
         <v>8273</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>122</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>581</v>
+        <v>428</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -9983,13 +9956,13 @@
         <v>11214</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10004,13 +9977,13 @@
         <v>10005</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -10019,13 +9992,13 @@
         <v>27344</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -10034,13 +10007,13 @@
         <v>37348</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,13 +10028,13 @@
         <v>683976</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>582</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>590</v>
+        <v>352</v>
       </c>
       <c r="H38" s="7">
         <v>1643</v>
@@ -10070,13 +10043,13 @@
         <v>990585</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="M38" s="7">
         <v>2648</v>
@@ -10088,10 +10061,10 @@
         <v>95</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>309</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A54A64C-C7F9-4518-B7A2-95C6A86B160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FAC428-EACD-49EE-A149-AAA02F575EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C72830E2-DD4E-4C62-9A4C-0CB4FA164FAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B85FB36-1EAA-40B1-A904-CAB32B0E1054}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="583">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,2%</t>
+    <t>6,36%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,7 +107,7 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>87,04%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,7 +122,7 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,8%</t>
+    <t>93,64%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -131,7 +131,7 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>8,1%</t>
+    <t>7,42%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -140,1608 +140,1608 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
@@ -1760,19 +1760,10 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -2208,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82B588-6760-499A-956F-FF770DD938A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E681E07-A0D6-44C4-88F8-D276CE7229D3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3810,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3816,13 @@
         <v>1980</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3840,13 +3831,13 @@
         <v>2220</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3855,13 +3846,13 @@
         <v>4200</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,10 +3867,10 @@
         <v>109913</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -3891,13 +3882,13 @@
         <v>149804</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M34" s="7">
         <v>255</v>
@@ -3906,13 +3897,13 @@
         <v>259717</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3971,13 @@
         <v>1824</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3995,13 +3986,13 @@
         <v>4363</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4010,13 +4001,13 @@
         <v>6188</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4022,13 @@
         <v>8094</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -4049,10 +4040,10 @@
         <v>102</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -4061,13 +4052,13 @@
         <v>16790</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4073,13 @@
         <v>492548</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H38" s="7">
         <v>648</v>
@@ -4097,13 +4088,13 @@
         <v>663783</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M38" s="7">
         <v>1160</v>
@@ -4112,13 +4103,13 @@
         <v>1156331</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4165,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9664EAF1-8097-4888-B7A7-D04B7A0F79AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A3075-0F21-49D9-8EF9-B81F51B96232}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4320,39 +4311,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,39 +4356,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,39 +4401,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,39 +4446,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4495,13 @@
         <v>1062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4519,13 +4510,13 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4534,13 +4525,13 @@
         <v>2390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4546,13 @@
         <v>4258</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4570,13 +4561,13 @@
         <v>4288</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4585,13 +4576,13 @@
         <v>8546</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4597,13 @@
         <v>73883</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4621,13 +4612,13 @@
         <v>96477</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -4636,13 +4627,13 @@
         <v>170360</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4701,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4725,13 +4716,13 @@
         <v>5461</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4740,10 +4731,10 @@
         <v>8449</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>196</v>
@@ -4952,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4958,13 @@
         <v>1111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4988,7 +4979,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4997,13 +4988,13 @@
         <v>3141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,10 +5009,10 @@
         <v>107197</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -5036,7 +5027,7 @@
         <v>61</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -5048,13 +5039,13 @@
         <v>239636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5143,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5173,13 +5164,13 @@
         <v>1035</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5188,13 +5179,13 @@
         <v>2979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5203,13 +5194,13 @@
         <v>4014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,10 +5215,10 @@
         <v>30577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5239,13 +5230,13 @@
         <v>46876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5254,13 +5245,13 @@
         <v>77453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5319,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5343,7 +5334,7 @@
         <v>2156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -5409,13 +5400,13 @@
         <v>2187</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,10 +5421,10 @@
         <v>50699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -5445,13 +5436,13 @@
         <v>65869</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -5460,13 +5451,13 @@
         <v>116568</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5525,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5555,7 +5546,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5564,13 +5555,13 @@
         <v>3058</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,10 +5576,10 @@
         <v>4231</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>268</v>
@@ -5618,10 +5609,10 @@
         <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5627,13 @@
         <v>106999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H30" s="7">
         <v>124</v>
@@ -5651,13 +5642,13 @@
         <v>136623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -5666,13 +5657,13 @@
         <v>243624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5755,13 +5746,13 @@
         <v>2182</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5770,13 +5761,13 @@
         <v>2182</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5782,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -5806,13 +5797,13 @@
         <v>4661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -5821,13 +5812,13 @@
         <v>6859</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,10 +5833,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -5857,13 +5848,13 @@
         <v>157573</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>296</v>
+        <v>61</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5872,10 +5863,10 @@
         <v>276128</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>299</v>
@@ -5946,10 +5937,10 @@
         <v>6138</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>300</v>
@@ -5961,13 +5952,13 @@
         <v>13153</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -5979,10 +5970,10 @@
         <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5988,13 @@
         <v>13860</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6012,13 +6003,13 @@
         <v>21620</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6027,10 +6018,10 @@
         <v>35480</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>309</v>
@@ -6048,13 +6039,13 @@
         <v>539639</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H38" s="7">
         <v>663</v>
@@ -6063,13 +6054,13 @@
         <v>708201</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -6078,13 +6069,13 @@
         <v>1247840</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6131,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6164,7 +6155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1CE4E-B8D4-4879-8E47-FDCB66CC2B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F7F63D-7711-4F80-A8D7-6530D49AAC71}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6181,7 +6172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6294,7 +6285,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6303,28 +6294,28 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6330,13 @@
         <v>1603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6360,7 +6351,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6369,13 +6360,13 @@
         <v>1603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,10 +6381,10 @@
         <v>37293</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6405,10 +6396,10 @@
         <v>48353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6417,16 +6408,16 @@
         <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85646</v>
+        <v>85645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6459,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -6500,7 +6491,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6509,7 +6500,7 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -6524,13 +6515,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6536,13 @@
         <v>1900</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6560,13 +6551,13 @@
         <v>4030</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -6575,13 +6566,13 @@
         <v>5930</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +6587,10 @@
         <v>85395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6611,13 +6602,13 @@
         <v>109851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -6626,13 +6617,13 @@
         <v>195246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6715,13 +6706,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6730,13 +6721,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6766,13 +6757,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6787,7 +6778,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6796,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -6817,13 +6808,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6832,13 +6823,13 @@
         <v>138966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,7 +6903,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6942,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6948,13 @@
         <v>764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6978,7 +6969,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6987,13 +6978,13 @@
         <v>3018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,10 +6999,10 @@
         <v>63948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -7023,10 +7014,10 @@
         <v>89320</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -7038,13 +7029,13 @@
         <v>153267</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7133,7 +7124,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7148,7 +7139,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7154,7 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>229</v>
+        <v>381</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -7196,7 +7187,7 @@
         <v>385</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>386</v>
@@ -7214,10 +7205,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -7229,10 +7220,10 @@
         <v>48237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -7244,13 +7235,13 @@
         <v>89518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7315,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7333,13 +7324,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -7348,13 +7339,13 @@
         <v>2453</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7360,13 @@
         <v>2603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7384,13 +7375,13 @@
         <v>2272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7399,13 +7390,13 @@
         <v>4875</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7411,13 @@
         <v>45843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -7435,13 +7426,13 @@
         <v>62663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -7450,13 +7441,13 @@
         <v>108506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7515,13 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7545,7 +7536,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7554,13 +7545,13 @@
         <v>2183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7566,13 @@
         <v>912</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -7590,13 +7581,13 @@
         <v>6926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7605,13 +7596,13 @@
         <v>7838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>290</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,10 +7617,10 @@
         <v>110361</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>23</v>
@@ -7641,13 +7632,13 @@
         <v>139428</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>113</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7656,13 +7647,13 @@
         <v>249789</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>427</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,7 +7727,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7751,7 +7742,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7766,7 +7757,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>270</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7796,13 +7787,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -7811,13 +7802,13 @@
         <v>2590</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,7 +7826,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>181</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>25</v>
@@ -7847,7 +7838,7 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>435</v>
@@ -7942,7 +7933,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>439</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7951,13 +7942,13 @@
         <v>9353</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -7969,10 +7960,10 @@
         <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7978,13 @@
         <v>8581</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -8002,13 +7993,13 @@
         <v>21600</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -8017,10 +8008,10 @@
         <v>30181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>446</v>
@@ -8041,10 +8032,10 @@
         <v>447</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>448</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>369</v>
+        <v>118</v>
       </c>
       <c r="H38" s="7">
         <v>631</v>
@@ -8053,13 +8044,13 @@
         <v>746978</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M38" s="7">
         <v>1247</v>
@@ -8068,10 +8059,10 @@
         <v>1328813</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>453</v>
@@ -8130,7 +8121,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -8154,7 +8145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510EA7F7-E575-4B5C-A38D-6DA149CCACC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97626080-9831-4910-AFBB-75C4F8F2C377}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8350,7 +8341,7 @@
         <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8359,13 +8350,13 @@
         <v>2251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8374,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -8395,13 +8386,13 @@
         <v>59968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
@@ -8410,13 +8401,13 @@
         <v>111888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,7 +8481,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8499,13 +8490,13 @@
         <v>872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8520,7 +8511,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,13 +8526,13 @@
         <v>2076</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -8550,13 +8541,13 @@
         <v>6041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>72</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -8565,13 +8556,13 @@
         <v>8117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8586,10 +8577,10 @@
         <v>84238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -8601,13 +8592,13 @@
         <v>134444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>306</v>
@@ -8616,13 +8607,13 @@
         <v>218682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8690,13 +8681,13 @@
         <v>1350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8711,7 +8702,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8723,10 +8714,10 @@
         <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8741,13 +8732,13 @@
         <v>4346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -8756,13 +8747,13 @@
         <v>3664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -8771,13 +8762,13 @@
         <v>8010</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8792,13 +8783,13 @@
         <v>71905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -8807,13 +8798,13 @@
         <v>90122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -8822,13 +8813,13 @@
         <v>162028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,7 +8893,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -8911,13 +8902,13 @@
         <v>1765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -8926,13 +8917,13 @@
         <v>1765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>507</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,13 +8938,13 @@
         <v>728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -8962,13 +8953,13 @@
         <v>810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -8977,13 +8968,13 @@
         <v>1538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8998,10 +8989,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -9013,13 +9004,13 @@
         <v>107880</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>511</v>
+        <v>366</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
@@ -9028,13 +9019,13 @@
         <v>185957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>514</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,7 +9099,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9117,13 +9108,13 @@
         <v>484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9132,13 +9123,13 @@
         <v>484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9153,13 +9144,13 @@
         <v>1829</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -9168,13 +9159,13 @@
         <v>4643</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>521</v>
+        <v>220</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -9183,13 +9174,13 @@
         <v>6472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9204,13 +9195,13 @@
         <v>36502</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -9219,13 +9210,13 @@
         <v>60352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -9234,13 +9225,13 @@
         <v>96855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,13 +9299,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -9323,13 +9314,13 @@
         <v>2759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>536</v>
+        <v>399</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -9338,13 +9329,13 @@
         <v>4350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,13 +9350,13 @@
         <v>867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -9374,13 +9365,13 @@
         <v>3603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -9389,13 +9380,13 @@
         <v>4470</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>543</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9410,13 +9401,13 @@
         <v>60725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
@@ -9425,13 +9416,13 @@
         <v>63491</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M26" s="7">
         <v>289</v>
@@ -9440,10 +9431,10 @@
         <v>124217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>550</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>551</v>
@@ -9520,7 +9511,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -9529,13 +9520,13 @@
         <v>1228</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -9550,7 +9541,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9571,7 +9562,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9580,7 +9571,7 @@
         <v>2104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
@@ -9631,13 +9622,13 @@
         <v>255511</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>404</v>
@@ -9646,13 +9637,13 @@
         <v>386351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>369</v>
+        <v>118</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9726,7 +9717,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9741,7 +9732,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9756,7 +9747,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9771,13 +9762,13 @@
         <v>159</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -9786,7 +9777,7 @@
         <v>4227</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>543</v>
+        <v>308</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>562</v>
@@ -9804,10 +9795,10 @@
         <v>564</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>565</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9822,10 +9813,10 @@
         <v>169768</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -9855,7 +9846,7 @@
         <v>570</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>571</v>
@@ -9941,13 +9932,13 @@
         <v>8273</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -9956,13 +9947,13 @@
         <v>11214</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>573</v>
+        <v>149</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>572</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9980,10 +9971,10 @@
         <v>455</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -9992,13 +9983,13 @@
         <v>27344</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>577</v>
+        <v>129</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -10007,13 +9998,13 @@
         <v>37348</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10028,13 +10019,13 @@
         <v>683976</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="H38" s="7">
         <v>1643</v>
@@ -10043,13 +10034,13 @@
         <v>990585</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>2648</v>
@@ -10064,7 +10055,7 @@
         <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10120,7 +10111,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FAC428-EACD-49EE-A149-AAA02F575EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE75137C-1B27-481F-A5D0-0E792BF43594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B85FB36-1EAA-40B1-A904-CAB32B0E1054}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27356640-8815-4ADF-B555-78CA39FCA592}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="595">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>12,96%</t>
+    <t>11,52%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,36%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,7 +107,7 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>87,04%</t>
+    <t>88,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,7 +122,7 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,64%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -131,7 +131,7 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,42%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -140,7 +140,7 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -149,34 +149,34 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>8,19%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>92,58%</t>
+    <t>92,21%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>91,81%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -209,37 +209,37 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>8,67%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>92,36%</t>
+    <t>91,33%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>92,98%</t>
+    <t>92,99%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>94,47%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -251,1543 +251,1579 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>11,22%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>97,75%</t>
   </si>
   <si>
     <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E681E07-A0D6-44C4-88F8-D276CE7229D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABA4DFA-54A1-405D-A752-00E95B602058}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3801,7 +3837,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3852,13 @@
         <v>1980</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3831,13 +3867,13 @@
         <v>2220</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3846,13 +3882,13 @@
         <v>4200</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3903,10 @@
         <v>109913</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -3882,13 +3918,13 @@
         <v>149804</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M34" s="7">
         <v>255</v>
@@ -3897,13 +3933,13 @@
         <v>259717</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +4007,13 @@
         <v>1824</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3986,13 +4022,13 @@
         <v>4363</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4001,13 +4037,13 @@
         <v>6188</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4058,13 @@
         <v>8094</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -4040,10 +4076,10 @@
         <v>102</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -4052,13 +4088,13 @@
         <v>16790</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4109,13 @@
         <v>492548</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H38" s="7">
         <v>648</v>
@@ -4088,13 +4124,13 @@
         <v>663783</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M38" s="7">
         <v>1160</v>
@@ -4103,13 +4139,13 @@
         <v>1156331</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4201,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +4225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A3075-0F21-49D9-8EF9-B81F51B96232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F269CDBE-5EDE-46E1-837D-06C227F761A8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4206,7 +4242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4311,39 +4347,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,39 +4392,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,39 +4437,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,39 +4482,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4531,13 @@
         <v>1062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4510,13 +4546,13 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4525,13 +4561,13 @@
         <v>2390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4582,13 @@
         <v>4258</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4561,13 +4597,13 @@
         <v>4288</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4576,13 +4612,13 @@
         <v>8546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4633,13 @@
         <v>73883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4612,13 +4648,13 @@
         <v>96477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -4627,13 +4663,13 @@
         <v>170360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +4860,7 @@
         <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -4833,13 +4869,13 @@
         <v>124072</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,7 +4949,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4943,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4994,13 @@
         <v>1111</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4979,7 +5015,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4988,13 +5024,13 @@
         <v>3141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,10 +5045,10 @@
         <v>107197</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -5027,7 +5063,7 @@
         <v>61</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -5039,13 +5075,13 @@
         <v>239636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5134,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5164,13 +5200,13 @@
         <v>1035</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5179,13 +5215,13 @@
         <v>2979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5194,13 +5230,13 @@
         <v>4014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,10 +5251,10 @@
         <v>30577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5230,13 +5266,13 @@
         <v>46876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5245,13 +5281,13 @@
         <v>77453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5355,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5340,7 +5376,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -5349,13 +5385,13 @@
         <v>3213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5385,13 +5421,13 @@
         <v>2187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5400,13 +5436,13 @@
         <v>2187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,10 +5457,10 @@
         <v>50699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -5436,13 +5472,13 @@
         <v>65869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -5451,13 +5487,13 @@
         <v>116568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5561,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5546,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5555,13 +5591,13 @@
         <v>3058</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5612,13 @@
         <v>4231</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5591,13 +5627,13 @@
         <v>3313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5606,13 +5642,13 @@
         <v>7545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5663,13 @@
         <v>106999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H30" s="7">
         <v>124</v>
@@ -5642,13 +5678,13 @@
         <v>136623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -5657,13 +5693,13 @@
         <v>243624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5746,13 +5782,13 @@
         <v>2182</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5761,13 +5797,13 @@
         <v>2182</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5818,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -5797,13 +5833,13 @@
         <v>4661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -5812,13 +5848,13 @@
         <v>6859</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,10 +5869,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -5848,13 +5884,13 @@
         <v>157573</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5863,13 +5899,13 @@
         <v>276128</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5973,13 @@
         <v>6138</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -5952,13 +5988,13 @@
         <v>13153</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -5970,10 +6006,10 @@
         <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,10 +6024,10 @@
         <v>13860</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>303</v>
@@ -6009,7 +6045,7 @@
         <v>305</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6018,13 +6054,13 @@
         <v>35480</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6075,13 @@
         <v>539639</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="H38" s="7">
         <v>663</v>
@@ -6054,13 +6090,13 @@
         <v>708201</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -6069,13 +6105,13 @@
         <v>1247840</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,7 +6167,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6155,7 +6191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F7F63D-7711-4F80-A8D7-6530D49AAC71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15102F7A-0BD0-427E-A20B-8879D175D3B0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6172,7 +6208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6285,7 +6321,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6294,28 +6330,28 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6366,13 @@
         <v>1603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6351,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6360,13 +6396,13 @@
         <v>1603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,10 +6417,10 @@
         <v>37293</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6396,10 +6432,10 @@
         <v>48353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6408,16 +6444,16 @@
         <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85645</v>
+        <v>85646</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6495,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -6491,7 +6527,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6500,13 +6536,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6515,7 +6551,7 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -6566,13 +6602,13 @@
         <v>5930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,10 +6623,10 @@
         <v>85395</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6602,10 +6638,10 @@
         <v>109851</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>349</v>
@@ -6623,7 +6659,7 @@
         <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6706,13 +6742,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6721,13 +6757,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>356</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,7 +6784,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6757,13 +6793,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6772,7 +6808,7 @@
         <v>1233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
@@ -6814,7 +6850,7 @@
         <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6823,13 +6859,13 @@
         <v>138966</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6933,7 +6969,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6984,13 @@
         <v>764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6969,7 +7005,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6978,13 +7014,13 @@
         <v>3018</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,10 +7035,10 @@
         <v>63948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -7014,10 +7050,10 @@
         <v>89320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -7029,13 +7065,13 @@
         <v>153267</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7124,7 +7160,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7139,7 +7175,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7190,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7169,13 +7205,13 @@
         <v>2295</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7184,13 +7220,13 @@
         <v>3094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,10 +7241,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -7220,10 +7256,10 @@
         <v>48237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -7235,13 +7271,13 @@
         <v>89518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7324,13 +7360,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -7339,13 +7375,13 @@
         <v>2453</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,13 +7396,13 @@
         <v>2603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7375,13 +7411,13 @@
         <v>2272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7390,13 +7426,13 @@
         <v>4875</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7447,13 @@
         <v>45843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -7426,13 +7462,13 @@
         <v>62663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -7441,13 +7477,13 @@
         <v>108506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7515,13 +7551,13 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>414</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7530,13 +7566,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7545,13 +7581,13 @@
         <v>2183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7602,13 @@
         <v>912</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -7581,13 +7617,13 @@
         <v>6926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7596,13 +7632,13 @@
         <v>7838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,10 +7653,10 @@
         <v>110361</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>23</v>
@@ -7632,13 +7668,13 @@
         <v>139428</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7647,13 +7683,13 @@
         <v>249789</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>302</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7742,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7757,7 +7793,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>430</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>429</v>
+        <v>302</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7787,13 +7823,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -7802,13 +7838,13 @@
         <v>2590</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,7 +7862,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>25</v>
@@ -7838,10 +7874,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>23</v>
@@ -7853,10 +7889,10 @@
         <v>307875</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>23</v>
@@ -7927,13 +7963,13 @@
         <v>912</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7942,13 +7978,13 @@
         <v>9353</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>440</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -7957,13 +7993,13 @@
         <v>10265</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>430</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>142</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +8014,13 @@
         <v>8581</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>442</v>
+        <v>280</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>433</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -7993,13 +8029,13 @@
         <v>21600</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -8008,13 +8044,13 @@
         <v>30181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8065,13 @@
         <v>581835</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="H38" s="7">
         <v>631</v>
@@ -8044,13 +8080,13 @@
         <v>746978</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M38" s="7">
         <v>1247</v>
@@ -8059,13 +8095,13 @@
         <v>1328813</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>329</v>
+        <v>445</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>453</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,7 +8157,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -8145,7 +8181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97626080-9831-4910-AFBB-75C4F8F2C377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCC6A4-8A48-4FD6-956B-55F8D6D9BDCE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8162,7 +8198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8290,7 +8326,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8335,13 +8371,13 @@
         <v>2251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8350,13 +8386,13 @@
         <v>2251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8374,7 +8410,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -8386,13 +8422,13 @@
         <v>59968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
@@ -8401,13 +8437,13 @@
         <v>111888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8490,13 +8526,13 @@
         <v>872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8511,7 +8547,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8526,13 +8562,13 @@
         <v>2076</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -8541,13 +8577,13 @@
         <v>6041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -8556,13 +8592,13 @@
         <v>8117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>476</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,10 +8613,10 @@
         <v>84238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -8592,13 +8628,13 @@
         <v>134444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>306</v>
@@ -8607,13 +8643,13 @@
         <v>218682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8717,13 @@
         <v>1350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>485</v>
+        <v>305</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>486</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8702,7 +8738,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8714,10 +8750,10 @@
         <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8768,13 @@
         <v>4346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -8747,13 +8783,13 @@
         <v>3664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -8762,13 +8798,13 @@
         <v>8010</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8819,13 @@
         <v>71905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -8798,13 +8834,13 @@
         <v>90122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -8813,13 +8849,13 @@
         <v>162028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8893,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -8902,13 +8938,13 @@
         <v>1765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>495</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -8917,13 +8953,13 @@
         <v>1765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8974,13 @@
         <v>728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -8953,13 +8989,13 @@
         <v>810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -8968,13 +9004,13 @@
         <v>1538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,10 +9025,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -9004,13 +9040,13 @@
         <v>107880</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>366</v>
+        <v>506</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
@@ -9019,13 +9055,13 @@
         <v>185957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>516</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9099,7 +9135,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9108,13 +9144,13 @@
         <v>484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9123,13 +9159,13 @@
         <v>484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>520</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,13 +9180,13 @@
         <v>1829</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -9159,13 +9195,13 @@
         <v>4643</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>220</v>
+        <v>514</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>515</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -9177,10 +9213,10 @@
         <v>194</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9195,13 +9231,13 @@
         <v>36502</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>528</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -9210,13 +9246,13 @@
         <v>60352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -9225,13 +9261,13 @@
         <v>96855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,13 +9335,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>203</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -9314,13 +9350,13 @@
         <v>2759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -9329,13 +9365,13 @@
         <v>4350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9350,13 +9386,13 @@
         <v>867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -9365,13 +9401,13 @@
         <v>3603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>536</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -9380,13 +9416,13 @@
         <v>4470</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9401,13 +9437,13 @@
         <v>60725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>541</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>542</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
@@ -9416,13 +9452,13 @@
         <v>63491</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M26" s="7">
         <v>289</v>
@@ -9431,13 +9467,13 @@
         <v>124217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>547</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,7 +9547,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>342</v>
+        <v>549</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -9520,13 +9556,13 @@
         <v>1228</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -9535,13 +9571,13 @@
         <v>1228</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9562,7 +9598,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>342</v>
+        <v>549</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9571,13 +9607,13 @@
         <v>2104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>35</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -9586,13 +9622,13 @@
         <v>2104</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>71</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9610,7 +9646,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>25</v>
@@ -9622,13 +9658,13 @@
         <v>255511</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M30" s="7">
         <v>404</v>
@@ -9637,13 +9673,13 @@
         <v>386351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>118</v>
+        <v>560</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9717,7 +9753,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9732,7 +9768,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9747,7 +9783,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,13 +9798,13 @@
         <v>159</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -9777,13 +9813,13 @@
         <v>4227</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>308</v>
+        <v>566</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>563</v>
+        <v>284</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -9792,13 +9828,13 @@
         <v>4386</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>414</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9813,10 +9849,10 @@
         <v>169768</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -9828,13 +9864,13 @@
         <v>218816</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M34" s="7">
         <v>574</v>
@@ -9843,13 +9879,13 @@
         <v>388584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>296</v>
+        <v>576</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9917,13 +9953,13 @@
         <v>2941</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>438</v>
+        <v>579</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -9932,13 +9968,13 @@
         <v>8273</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>122</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>581</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -9947,13 +9983,13 @@
         <v>11214</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>149</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9968,13 +10004,13 @@
         <v>10005</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -9983,13 +10019,13 @@
         <v>27344</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>129</v>
+        <v>586</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -9998,13 +10034,13 @@
         <v>37348</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10019,13 +10055,13 @@
         <v>683976</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>579</v>
+        <v>427</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>373</v>
+        <v>590</v>
       </c>
       <c r="H38" s="7">
         <v>1643</v>
@@ -10034,13 +10070,13 @@
         <v>990585</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
       <c r="M38" s="7">
         <v>2648</v>
@@ -10052,10 +10088,10 @@
         <v>95</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10111,7 +10147,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE75137C-1B27-481F-A5D0-0E792BF43594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED50834-A13C-451E-AD69-3FE0D95465F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27356640-8815-4ADF-B555-78CA39FCA592}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BD669B20-0C8C-450E-B04E-EB1A1F3150F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="591">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -539,7 +539,40 @@
     <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -677,228 +710,231 @@
     <t>95,35%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
     <t>5,37%</t>
   </si>
   <si>
@@ -941,9 +977,6 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
     <t>2,48%</t>
   </si>
   <si>
@@ -956,9 +989,6 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>2,72%</t>
   </si>
   <si>
@@ -1058,18 +1088,12 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
     <t>7,44%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>9,35%</t>
   </si>
   <si>
@@ -1172,9 +1196,6 @@
     <t>99,5%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>4,07%</t>
   </si>
   <si>
@@ -1337,9 +1358,6 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
     <t>2,65%</t>
   </si>
   <si>
@@ -1385,445 +1403,415 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABA4DFA-54A1-405D-A752-00E95B602058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745E7BC-ECD2-488E-9477-86D29C6BC201}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4225,7 +4213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F269CDBE-5EDE-46E1-837D-06C227F761A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DB5249-CACC-4A82-AA40-195155B8DF70}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,12 +4333,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>166</v>
@@ -4358,28 +4348,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,41 +4384,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>166</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1043</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1043</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,43 +4433,49 @@
         <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44281</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="I6" s="7">
+        <v>47851</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="N6" s="7">
+        <v>92132</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,43 +4484,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4543,13 @@
         <v>1062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4546,13 +4558,13 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4561,13 +4573,13 @@
         <v>2390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4594,13 @@
         <v>4258</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4597,13 +4609,13 @@
         <v>4288</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4612,13 +4624,13 @@
         <v>8546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4645,13 @@
         <v>73883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4648,10 +4660,10 @@
         <v>96477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>161</v>
@@ -4663,10 +4675,10 @@
         <v>170360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>162</v>
@@ -4737,13 +4749,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4752,13 +4764,13 @@
         <v>5461</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4767,13 +4779,13 @@
         <v>8449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4800,13 @@
         <v>1027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4803,13 +4815,13 @@
         <v>2162</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4818,13 +4830,13 @@
         <v>3189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4851,13 @@
         <v>51727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4854,10 +4866,10 @@
         <v>72344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>89</v>
@@ -4869,13 +4881,13 @@
         <v>124072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +4961,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4964,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4979,7 +4991,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,43 +5006,43 @@
         <v>1111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>986</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
-        <v>2030</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
       <c r="N17" s="7">
-        <v>3141</v>
+        <v>2098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,49 +5051,49 @@
         <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>107197</v>
+        <v>62917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="I18" s="7">
-        <v>132438</v>
+        <v>84588</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="N18" s="7">
-        <v>239636</v>
+        <v>147504</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,10 +5102,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>25</v>
@@ -5105,10 +5117,10 @@
         <v>25</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>25</v>
@@ -5120,10 +5132,10 @@
         <v>25</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>25</v>
@@ -5155,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5170,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5200,13 +5212,13 @@
         <v>1035</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5218,10 +5230,10 @@
         <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5230,13 +5242,13 @@
         <v>4014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,10 +5263,10 @@
         <v>30577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5269,10 +5281,10 @@
         <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5281,13 +5293,13 @@
         <v>77453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5367,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5370,13 +5382,13 @@
         <v>2156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -5385,13 +5397,13 @@
         <v>3213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,7 +5424,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5421,13 +5433,13 @@
         <v>2187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5436,13 +5448,13 @@
         <v>2187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,7 +5472,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -5472,13 +5484,13 @@
         <v>65869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -5487,13 +5499,13 @@
         <v>116568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5573,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5582,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5591,13 +5603,13 @@
         <v>3058</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5624,13 @@
         <v>4231</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5627,13 +5639,13 @@
         <v>3313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5642,13 +5654,13 @@
         <v>7545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5675,13 @@
         <v>106999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="H30" s="7">
         <v>124</v>
@@ -5678,13 +5690,13 @@
         <v>136623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -5693,13 +5705,13 @@
         <v>243624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5785,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5782,13 +5794,13 @@
         <v>2182</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5797,13 +5809,13 @@
         <v>2182</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5830,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -5839,7 +5851,7 @@
         <v>148</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -5848,13 +5860,13 @@
         <v>6859</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,10 +5881,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -5884,13 +5896,13 @@
         <v>157573</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5899,13 +5911,13 @@
         <v>276128</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5985,13 @@
         <v>6138</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -5991,10 +6003,10 @@
         <v>124</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -6006,10 +6018,10 @@
         <v>29</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6036,13 @@
         <v>13860</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6039,13 +6051,13 @@
         <v>21620</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6054,13 +6066,13 @@
         <v>35480</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,10 +6087,10 @@
         <v>539639</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>86</v>
@@ -6090,13 +6102,13 @@
         <v>708201</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -6105,13 +6117,13 @@
         <v>1247840</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,7 +6203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15102F7A-0BD0-427E-A20B-8879D175D3B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39436154-64F1-49CD-B3E5-9C9A2272995B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6208,7 +6220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6321,7 +6333,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6330,13 +6342,13 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6345,13 +6357,13 @@
         <v>1038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6378,13 @@
         <v>1603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6387,7 +6399,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6396,13 +6408,13 @@
         <v>1603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,10 +6429,10 @@
         <v>37293</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6432,10 +6444,10 @@
         <v>48353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6447,13 +6459,13 @@
         <v>85646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6539,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6536,13 +6548,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6551,13 +6563,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6584,13 @@
         <v>1900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6587,13 +6599,13 @@
         <v>4030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -6602,13 +6614,13 @@
         <v>5930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,10 +6635,10 @@
         <v>85395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6638,13 +6650,13 @@
         <v>109851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -6653,13 +6665,13 @@
         <v>195246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6742,13 +6754,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6784,7 +6796,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6793,13 +6805,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6808,13 +6820,13 @@
         <v>1233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -6844,13 +6856,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6859,13 +6871,13 @@
         <v>138966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6969,7 +6981,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6996,13 @@
         <v>764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7005,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7014,13 +7026,13 @@
         <v>3018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,10 +7047,10 @@
         <v>63948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -7050,10 +7062,10 @@
         <v>89320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -7068,10 +7080,10 @@
         <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,7 +7157,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7160,7 +7172,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7175,7 +7187,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7202,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7205,13 +7217,13 @@
         <v>2295</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7220,13 +7232,13 @@
         <v>3094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,10 +7253,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -7256,10 +7268,10 @@
         <v>48237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -7271,13 +7283,13 @@
         <v>89518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,7 +7363,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7360,13 +7372,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -7375,13 +7387,13 @@
         <v>2453</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7408,13 @@
         <v>2603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7411,13 +7423,13 @@
         <v>2272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7426,13 +7438,13 @@
         <v>4875</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,7 +7462,7 @@
         <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -7465,10 +7477,10 @@
         <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -7477,13 +7489,13 @@
         <v>108506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,7 +7563,7 @@
         <v>912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -7566,13 +7578,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7581,13 +7593,13 @@
         <v>2183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7614,13 @@
         <v>912</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -7617,13 +7629,13 @@
         <v>6926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7632,13 +7644,13 @@
         <v>7838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,10 +7665,10 @@
         <v>110361</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>23</v>
@@ -7668,13 +7680,13 @@
         <v>139428</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7683,13 +7695,13 @@
         <v>249789</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7775,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7778,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7793,7 +7805,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,7 +7826,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7823,13 +7835,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -7838,13 +7850,13 @@
         <v>2590</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7874,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>25</v>
@@ -7874,10 +7886,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>23</v>
@@ -7889,10 +7901,10 @@
         <v>307875</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>23</v>
@@ -7963,7 +7975,7 @@
         <v>912</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
@@ -7978,13 +7990,13 @@
         <v>9353</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -7993,13 +8005,13 @@
         <v>10265</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>432</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,10 +8029,10 @@
         <v>126</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -8029,13 +8041,13 @@
         <v>21600</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -8044,13 +8056,13 @@
         <v>30181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8077,13 @@
         <v>581835</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H38" s="7">
         <v>631</v>
@@ -8080,13 +8092,13 @@
         <v>746978</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M38" s="7">
         <v>1247</v>
@@ -8095,13 +8107,13 @@
         <v>1328813</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCC6A4-8A48-4FD6-956B-55F8D6D9BDCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFDEE41-8145-4024-BF48-44BCF5C6AFEA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8198,7 +8210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8326,7 +8338,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8368,31 +8380,31 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,13 +8416,13 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -8419,31 +8431,31 @@
         <v>129</v>
       </c>
       <c r="I6" s="7">
-        <v>59968</v>
+        <v>61159</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
       </c>
       <c r="N6" s="7">
-        <v>111888</v>
+        <v>117060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>155</v>
+        <v>464</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,7 +8467,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -8470,7 +8482,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -8485,7 +8497,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -8517,37 +8529,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>872</v>
+        <v>738</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>872</v>
+        <v>738</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8559,46 +8571,46 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>2076</v>
+        <v>1897</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>6041</v>
+        <v>5454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>8117</v>
+        <v>7351</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,13 +8622,13 @@
         <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>84238</v>
+        <v>78812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -8625,31 +8637,31 @@
         <v>213</v>
       </c>
       <c r="I10" s="7">
-        <v>134444</v>
+        <v>122799</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>306</v>
       </c>
       <c r="N10" s="7">
-        <v>218682</v>
+        <v>201610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,7 +8673,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
@@ -8676,7 +8688,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>25</v>
@@ -8691,7 +8703,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>25</v>
@@ -8714,46 +8726,46 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1350</v>
+        <v>1268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1164</v>
+        <v>1055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>2514</v>
+        <v>2323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8765,46 +8777,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>4346</v>
+        <v>4074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>3664</v>
+        <v>3311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>483</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>8010</v>
+        <v>7385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,46 +8828,46 @@
         <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>71905</v>
+        <v>68148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
       </c>
       <c r="I14" s="7">
-        <v>90122</v>
+        <v>83059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>162028</v>
+        <v>151208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,7 +8879,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>25</v>
@@ -8882,7 +8894,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>25</v>
@@ -8897,7 +8909,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>25</v>
@@ -8935,31 +8947,31 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1765</v>
+        <v>1652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1765</v>
+        <v>1652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,46 +8983,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>505</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>810</v>
+        <v>763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1538</v>
+        <v>1432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,13 +9034,13 @@
         <v>117</v>
       </c>
       <c r="D18" s="7">
-        <v>78077</v>
+        <v>73999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>343</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -9037,28 +9049,28 @@
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>107880</v>
+        <v>101221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
       </c>
       <c r="N18" s="7">
-        <v>185957</v>
+        <v>175219</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>135</v>
@@ -9073,7 +9085,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>25</v>
@@ -9088,7 +9100,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>25</v>
@@ -9103,7 +9115,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>25</v>
@@ -9135,37 +9147,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,46 +9189,46 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>1829</v>
+        <v>1596</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>520</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>4643</v>
+        <v>4078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
       </c>
       <c r="N21" s="7">
-        <v>6472</v>
+        <v>5675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>194</v>
+        <v>525</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,46 +9240,46 @@
         <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>36502</v>
+        <v>33220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
       </c>
       <c r="I22" s="7">
-        <v>60352</v>
+        <v>54744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
       </c>
       <c r="N22" s="7">
-        <v>96855</v>
+        <v>87964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>525</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,7 +9291,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>25</v>
@@ -9294,7 +9306,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>25</v>
@@ -9309,7 +9321,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>25</v>
@@ -9332,46 +9344,46 @@
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>1591</v>
+        <v>1512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>2759</v>
+        <v>2570</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>4350</v>
+        <v>4082</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>226</v>
+        <v>539</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>540</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9383,46 +9395,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>867</v>
+        <v>821</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>533</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>3603</v>
+        <v>3328</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>536</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>4470</v>
+        <v>4149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,46 +9446,46 @@
         <v>129</v>
       </c>
       <c r="D26" s="7">
-        <v>60725</v>
+        <v>57929</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
       </c>
       <c r="I26" s="7">
-        <v>63491</v>
+        <v>59360</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M26" s="7">
         <v>289</v>
       </c>
       <c r="N26" s="7">
-        <v>124217</v>
+        <v>117288</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,7 +9497,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>25</v>
@@ -9500,7 +9512,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>25</v>
@@ -9515,7 +9527,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>25</v>
@@ -9547,37 +9559,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1228</v>
+        <v>1138</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>1228</v>
+        <v>1138</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9598,37 +9610,37 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>2104</v>
+        <v>1966</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>2104</v>
+        <v>1966</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>555</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>556</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9640,13 +9652,13 @@
         <v>168</v>
       </c>
       <c r="D30" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>25</v>
@@ -9655,31 +9667,31 @@
         <v>236</v>
       </c>
       <c r="I30" s="7">
-        <v>255511</v>
+        <v>336077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>563</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>23</v>
       </c>
       <c r="M30" s="7">
         <v>404</v>
       </c>
       <c r="N30" s="7">
-        <v>386351</v>
+        <v>459331</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>561</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9703,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>25</v>
@@ -9706,7 +9718,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>25</v>
@@ -9721,7 +9733,7 @@
         <v>410</v>
       </c>
       <c r="N31" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>25</v>
@@ -9753,7 +9765,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9768,7 +9780,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9783,7 +9795,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9795,46 +9807,46 @@
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
       </c>
       <c r="I33" s="7">
-        <v>4227</v>
+        <v>2417</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>566</v>
+        <v>180</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>284</v>
+        <v>571</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
       </c>
       <c r="N33" s="7">
-        <v>4386</v>
+        <v>2576</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>552</v>
+        <v>291</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9846,13 +9858,13 @@
         <v>234</v>
       </c>
       <c r="D34" s="7">
-        <v>169768</v>
+        <v>146922</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
@@ -9861,31 +9873,31 @@
         <v>340</v>
       </c>
       <c r="I34" s="7">
-        <v>218816</v>
+        <v>184225</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M34" s="7">
         <v>574</v>
       </c>
       <c r="N34" s="7">
-        <v>388584</v>
+        <v>331146</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>575</v>
+        <v>115</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9897,7 +9909,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>25</v>
@@ -9912,7 +9924,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>25</v>
@@ -9927,7 +9939,7 @@
         <v>578</v>
       </c>
       <c r="N35" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>25</v>
@@ -9950,46 +9962,46 @@
         <v>6</v>
       </c>
       <c r="D36" s="7">
-        <v>2941</v>
+        <v>2780</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>502</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
       </c>
       <c r="I36" s="7">
-        <v>8273</v>
+        <v>7576</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>581</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>581</v>
+        <v>269</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
       </c>
       <c r="N36" s="7">
-        <v>11214</v>
+        <v>10356</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>583</v>
+        <v>468</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10001,46 +10013,46 @@
         <v>16</v>
       </c>
       <c r="D37" s="7">
-        <v>10005</v>
+        <v>9215</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
       </c>
       <c r="I37" s="7">
-        <v>27344</v>
+        <v>23569</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>366</v>
+        <v>48</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>585</v>
+        <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
       </c>
       <c r="N37" s="7">
-        <v>37348</v>
+        <v>32785</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>493</v>
+        <v>102</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10052,46 +10064,46 @@
         <v>1005</v>
       </c>
       <c r="D38" s="7">
-        <v>683976</v>
+        <v>638183</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>162</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>590</v>
+        <v>357</v>
       </c>
       <c r="H38" s="7">
         <v>1643</v>
       </c>
       <c r="I38" s="7">
-        <v>990585</v>
+        <v>1002644</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>592</v>
+        <v>337</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M38" s="7">
         <v>2648</v>
       </c>
       <c r="N38" s="7">
-        <v>1674562</v>
+        <v>1640828</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>95</v>
+        <v>589</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>309</v>
+        <v>590</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10103,7 +10115,7 @@
         <v>1027</v>
       </c>
       <c r="D39" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>25</v>
@@ -10118,7 +10130,7 @@
         <v>1707</v>
       </c>
       <c r="I39" s="7">
-        <v>1026202</v>
+        <v>1033789</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>25</v>
@@ -10133,7 +10145,7 @@
         <v>2734</v>
       </c>
       <c r="N39" s="7">
-        <v>1723124</v>
+        <v>1683968</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>25</v>
